--- a/var_info/indv_panel_var_info/MIDUS_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/MIDUS_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6E5C5-E32D-1D40-AAF9-D1950565B0CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A52325-2294-454F-87EE-251A0F1BECB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="145">
   <si>
     <t>ord</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>eth</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1324,11 +1327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1338,7 +1341,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1382,10 +1385,13 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1419,8 +1425,11 @@
       <c r="K2">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1454,8 +1463,11 @@
       <c r="K3">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1489,8 +1501,11 @@
       <c r="K4">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1521,8 +1536,11 @@
       <c r="K5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1553,8 +1571,11 @@
       <c r="K6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1585,11 +1606,14 @@
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1620,11 +1644,14 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1658,8 +1685,11 @@
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1693,8 +1723,11 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1731,8 +1764,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1769,8 +1805,11 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1801,8 +1840,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1833,8 +1875,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1868,8 +1913,11 @@
       <c r="K15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +1951,11 @@
       <c r="K16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1938,8 +1989,11 @@
       <c r="K17">
         <v>365</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1973,8 +2027,11 @@
       <c r="K18">
         <v>365</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2008,8 +2065,11 @@
       <c r="K19">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2046,8 +2106,11 @@
       <c r="N20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2084,8 +2147,11 @@
       <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2122,8 +2188,11 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2160,8 +2229,11 @@
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2198,8 +2270,11 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2236,8 +2311,11 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2274,8 +2352,11 @@
       <c r="N26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2312,8 +2393,11 @@
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2350,8 +2434,11 @@
       <c r="N28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2388,8 +2475,11 @@
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2464,8 +2557,11 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2502,8 +2598,11 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2540,8 +2639,11 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2680,11 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2616,8 +2721,11 @@
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2654,8 +2762,11 @@
       <c r="N36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2692,8 +2803,11 @@
       <c r="N37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2730,8 +2844,11 @@
       <c r="N38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2768,8 +2885,11 @@
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2806,8 +2926,11 @@
       <c r="N40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2841,8 +2964,11 @@
       <c r="K41">
         <v>365</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2876,8 +3002,11 @@
       <c r="K42">
         <v>365</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2911,8 +3040,11 @@
       <c r="K43">
         <v>365</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2946,8 +3078,11 @@
       <c r="K44">
         <v>365</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -2981,8 +3116,11 @@
       <c r="K45">
         <v>365</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -3016,8 +3154,11 @@
       <c r="K46">
         <v>365</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -3048,8 +3189,11 @@
       <c r="J47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -3080,8 +3224,11 @@
       <c r="J48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -3112,8 +3259,11 @@
       <c r="J49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3141,8 +3291,11 @@
       <c r="I50" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="O50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3170,8 +3323,11 @@
       <c r="I51" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="O51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3179,7 +3335,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:15">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3187,7 +3343,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:15">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3195,43 +3351,43 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:15">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:15">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:15">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:15">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:15">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:15">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:15">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:15">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:15">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:15">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
@@ -3261,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3273,7 +3429,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3317,10 +3473,13 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3336,11 +3495,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3356,11 +3515,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3376,44 +3535,44 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
@@ -3621,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3632,7 +3791,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3676,10 +3835,13 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3695,11 +3857,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3715,11 +3877,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3735,11 +3897,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -3755,11 +3917,11 @@
       <c r="E5" t="s">
         <v>126</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3775,11 +3937,11 @@
       <c r="E6" t="s">
         <v>126</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3795,11 +3957,11 @@
       <c r="E7" t="s">
         <v>126</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3815,11 +3977,11 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3835,11 +3997,11 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3855,7 +4017,7 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3866,10 +4028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3878,7 +4040,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3922,10 +4084,13 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3941,11 +4106,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3961,11 +4126,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3981,11 +4146,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -4001,11 +4166,11 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4021,11 +4186,11 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4041,7 +4206,7 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4055,15 +4220,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4107,6 +4272,9 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4119,7 +4287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB5BF5D-AA0D-654F-AFA3-DCFAE5965CFD}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
